--- a/appendix/mean_precision_macro_rest.xlsx
+++ b/appendix/mean_precision_macro_rest.xlsx
@@ -525,7 +525,7 @@
         <v>0.431</v>
       </c>
       <c r="G3" t="n">
-        <v>0.452</v>
+        <v>0.446</v>
       </c>
       <c r="H3" t="n">
         <v>0.496</v>

--- a/appendix/mean_precision_macro_rest.xlsx
+++ b/appendix/mean_precision_macro_rest.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.246</v>
+        <v>0.262</v>
       </c>
       <c r="D5" t="n">
-        <v>0.382</v>
+        <v>0.391</v>
       </c>
       <c r="E5" t="n">
-        <v>0.428</v>
+        <v>0.436</v>
       </c>
       <c r="F5" t="n">
-        <v>0.489</v>
+        <v>0.504</v>
       </c>
       <c r="G5" t="n">
-        <v>0.528</v>
+        <v>0.551</v>
       </c>
       <c r="H5" t="n">
-        <v>0.574</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="6">
@@ -618,29 +618,29 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.261</v>
+        <v>0.262</v>
       </c>
       <c r="D7" t="n">
         <v>0.41</v>
       </c>
       <c r="E7" t="n">
-        <v>0.428</v>
+        <v>0.436</v>
       </c>
       <c r="F7" t="n">
-        <v>0.489</v>
+        <v>0.504</v>
       </c>
       <c r="G7" t="n">
         <v>0.553</v>
       </c>
       <c r="H7" t="n">
-        <v>0.574</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.268</v>
+        <v>0.272</v>
       </c>
       <c r="D8" t="n">
-        <v>0.451</v>
+        <v>0.466</v>
       </c>
       <c r="E8" t="n">
-        <v>0.52</v>
+        <v>0.511</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.552</v>
       </c>
       <c r="G8" t="n">
-        <v>0.607</v>
+        <v>0.606</v>
       </c>
       <c r="H8" t="n">
-        <v>0.635</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.381</v>
+        <v>0.338</v>
       </c>
       <c r="C9" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="D9" t="n">
-        <v>0.453</v>
+        <v>0.463</v>
       </c>
       <c r="E9" t="n">
-        <v>0.486</v>
+        <v>0.5</v>
       </c>
       <c r="F9" t="n">
         <v>0.522</v>
       </c>
       <c r="G9" t="n">
-        <v>0.526</v>
+        <v>0.521</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
   </sheetData>
